--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="H2">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="I2">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J2">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88630491255319</v>
+        <v>4.716522666666667</v>
       </c>
       <c r="N2">
-        <v>2.88630491255319</v>
+        <v>14.149568</v>
       </c>
       <c r="O2">
-        <v>0.4305274048087033</v>
+        <v>0.530211572117814</v>
       </c>
       <c r="P2">
-        <v>0.4305274048087033</v>
+        <v>0.530211572117814</v>
       </c>
       <c r="Q2">
-        <v>4.300801628984224</v>
+        <v>20.61513291671467</v>
       </c>
       <c r="R2">
-        <v>4.300801628984224</v>
+        <v>185.536196250432</v>
       </c>
       <c r="S2">
-        <v>0.01582037236601187</v>
+        <v>0.05283694213081755</v>
       </c>
       <c r="T2">
-        <v>0.01582037236601187</v>
+        <v>0.05283694213081754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="H3">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="I3">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J3">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.81780934432127</v>
+        <v>0.236474</v>
       </c>
       <c r="N3">
-        <v>3.81780934432127</v>
+        <v>0.709422</v>
       </c>
       <c r="O3">
-        <v>0.5694725951912967</v>
+        <v>0.02658340904223816</v>
       </c>
       <c r="P3">
-        <v>0.5694725951912967</v>
+        <v>0.02658340904223817</v>
       </c>
       <c r="Q3">
-        <v>5.68881013776313</v>
+        <v>1.033588362842</v>
       </c>
       <c r="R3">
-        <v>5.68881013776313</v>
+        <v>9.302295265578</v>
       </c>
       <c r="S3">
-        <v>0.02092612086370797</v>
+        <v>0.002649104846192395</v>
       </c>
       <c r="T3">
-        <v>0.02092612086370797</v>
+        <v>0.002649104846192395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1949807219897</v>
+        <v>4.370833</v>
       </c>
       <c r="H4">
-        <v>37.1949807219897</v>
+        <v>13.112499</v>
       </c>
       <c r="I4">
-        <v>0.9172612247356736</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J4">
-        <v>0.9172612247356736</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.88630491255319</v>
+        <v>3.942551666666667</v>
       </c>
       <c r="N4">
-        <v>2.88630491255319</v>
+        <v>11.827655</v>
       </c>
       <c r="O4">
-        <v>0.4305274048087033</v>
+        <v>0.4432050188399478</v>
       </c>
       <c r="P4">
-        <v>0.4305274048087033</v>
+        <v>0.4432050188399479</v>
       </c>
       <c r="Q4">
-        <v>107.3560555802001</v>
+        <v>17.23223492887167</v>
       </c>
       <c r="R4">
-        <v>107.3560555802001</v>
+        <v>155.090114359845</v>
       </c>
       <c r="S4">
-        <v>0.3949060946171024</v>
+        <v>0.04416651609280755</v>
       </c>
       <c r="T4">
-        <v>0.3949060946171024</v>
+        <v>0.04416651609280756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H5">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="I5">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J5">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.81780934432127</v>
+        <v>4.716522666666667</v>
       </c>
       <c r="N5">
-        <v>3.81780934432127</v>
+        <v>14.149568</v>
       </c>
       <c r="O5">
-        <v>0.5694725951912967</v>
+        <v>0.530211572117814</v>
       </c>
       <c r="P5">
-        <v>0.5694725951912967</v>
+        <v>0.530211572117814</v>
       </c>
       <c r="Q5">
-        <v>142.0033449622618</v>
+        <v>177.1447776541156</v>
       </c>
       <c r="R5">
-        <v>142.0033449622618</v>
+        <v>1594.30299888704</v>
       </c>
       <c r="S5">
-        <v>0.5223551301185713</v>
+        <v>0.4540251282153105</v>
       </c>
       <c r="T5">
-        <v>0.5223551301185713</v>
+        <v>0.4540251282153104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.86498894481282</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H6">
-        <v>1.86498894481282</v>
+        <v>112.67503</v>
       </c>
       <c r="I6">
-        <v>0.04599228203460642</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J6">
-        <v>0.04599228203460642</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.88630491255319</v>
+        <v>0.236474</v>
       </c>
       <c r="N6">
-        <v>2.88630491255319</v>
+        <v>0.709422</v>
       </c>
       <c r="O6">
-        <v>0.4305274048087033</v>
+        <v>0.02658340904223816</v>
       </c>
       <c r="P6">
-        <v>0.4305274048087033</v>
+        <v>0.02658340904223817</v>
       </c>
       <c r="Q6">
-        <v>5.382926753270633</v>
+        <v>8.881571681406665</v>
       </c>
       <c r="R6">
-        <v>5.382926753270633</v>
+        <v>79.93414513265999</v>
       </c>
       <c r="S6">
-        <v>0.01980093782558905</v>
+        <v>0.02276362179458496</v>
       </c>
       <c r="T6">
-        <v>0.01980093782558905</v>
+        <v>0.02276362179458497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.86498894481282</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H7">
-        <v>1.86498894481282</v>
+        <v>112.67503</v>
       </c>
       <c r="I7">
-        <v>0.04599228203460642</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J7">
-        <v>0.04599228203460642</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.81780934432127</v>
+        <v>3.942551666666667</v>
       </c>
       <c r="N7">
-        <v>3.81780934432127</v>
+        <v>11.827655</v>
       </c>
       <c r="O7">
-        <v>0.5694725951912967</v>
+        <v>0.4432050188399478</v>
       </c>
       <c r="P7">
-        <v>0.5694725951912967</v>
+        <v>0.4432050188399479</v>
       </c>
       <c r="Q7">
-        <v>7.12017222056225</v>
+        <v>148.0757091060722</v>
       </c>
       <c r="R7">
-        <v>7.12017222056225</v>
+        <v>1332.68138195465</v>
       </c>
       <c r="S7">
-        <v>0.02619134420901737</v>
+        <v>0.3795206028806998</v>
       </c>
       <c r="T7">
-        <v>0.02619134420901737</v>
+        <v>0.3795206028806998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.931542</v>
+      </c>
+      <c r="H8">
+        <v>5.794626</v>
+      </c>
+      <c r="I8">
+        <v>0.04403808403958729</v>
+      </c>
+      <c r="J8">
+        <v>0.04403808403958728</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.716522666666667</v>
+      </c>
+      <c r="N8">
+        <v>14.149568</v>
+      </c>
+      <c r="O8">
+        <v>0.530211572117814</v>
+      </c>
+      <c r="P8">
+        <v>0.530211572117814</v>
+      </c>
+      <c r="Q8">
+        <v>9.110161624618668</v>
+      </c>
+      <c r="R8">
+        <v>81.991454621568</v>
+      </c>
+      <c r="S8">
+        <v>0.02334950177168599</v>
+      </c>
+      <c r="T8">
+        <v>0.02334950177168599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.931542</v>
+      </c>
+      <c r="H9">
+        <v>5.794626</v>
+      </c>
+      <c r="I9">
+        <v>0.04403808403958729</v>
+      </c>
+      <c r="J9">
+        <v>0.04403808403958728</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.236474</v>
+      </c>
+      <c r="N9">
+        <v>0.709422</v>
+      </c>
+      <c r="O9">
+        <v>0.02658340904223816</v>
+      </c>
+      <c r="P9">
+        <v>0.02658340904223817</v>
+      </c>
+      <c r="Q9">
+        <v>0.456759462908</v>
+      </c>
+      <c r="R9">
+        <v>4.110835166172</v>
+      </c>
+      <c r="S9">
+        <v>0.001170682401460809</v>
+      </c>
+      <c r="T9">
+        <v>0.001170682401460809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.931542</v>
+      </c>
+      <c r="H10">
+        <v>5.794626</v>
+      </c>
+      <c r="I10">
+        <v>0.04403808403958729</v>
+      </c>
+      <c r="J10">
+        <v>0.04403808403958728</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.942551666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.827655</v>
+      </c>
+      <c r="O10">
+        <v>0.4432050188399478</v>
+      </c>
+      <c r="P10">
+        <v>0.4432050188399479</v>
+      </c>
+      <c r="Q10">
+        <v>7.615204131336667</v>
+      </c>
+      <c r="R10">
+        <v>68.53683718203</v>
+      </c>
+      <c r="S10">
+        <v>0.01951789986644049</v>
+      </c>
+      <c r="T10">
+        <v>0.01951789986644049</v>
       </c>
     </row>
   </sheetData>
